--- a/Data/dataVicFarewell.xlsx
+++ b/Data/dataVicFarewell.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leannechannie/Desktop/Victor Farewell/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leannechannie/Desktop/FarewellVictor/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{22D732B5-A1D9-0148-9F0C-8697F03C7380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C177C6A-CA35-E646-83C4-405897BE995E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14120"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataVicFarewell" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -120,14 +131,53 @@
     <t>Leanne</t>
   </si>
   <si>
-    <t>Hi Victor, I'm not gonna lie, I am sad to *see* (virtually) you leave MSO, especially after all the guidance you have given me this past 5 months. I really appreciate your patience and your warmth in going through all the gory MSDB details and duties with me, especially in this difficult time of communicating via screens. I also appreciate all the non-work conversations we had, about learning and development, finance, and ~~dash-boarding~~. Hope you still manage to find some time to play with Tableau/QlikSense/PowerBI once in a while. Though I am sad to see you leave, I know you will be off to greener pastures indeed -- there might be a lot of work, but seeing how you handled all the finance and budgets of MSDB, I know you'll settle in just fine. Wishing you all the best in your future endeavours and hope we can still keep in touch!</t>
+    <t>Mei</t>
+  </si>
+  <si>
+    <t>Dear Victor, Sad that you will leaving MSO, however, glad that you will still be with MND. Have known you better through working together closely on the annual billing review for MSDB and liaison with the TCs and partner agencies, from which I have learned a lot. Thanks for your guidance, support and assistance and I wish you all the best in your future endeavors.</t>
+  </si>
+  <si>
+    <t>Tammy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All the best Victor! Do keep in touch, and share more tips on Japan! </t>
+  </si>
+  <si>
+    <t>Willis</t>
+  </si>
+  <si>
+    <t>Hi Victor, it has only been a short while but thank you for showing me the ropes of MSDB and being an open source of information and connections. Will miss having you around, all the best for your future endeavors.</t>
+  </si>
+  <si>
+    <t>Peixin</t>
+  </si>
+  <si>
+    <t>Thanks for being a helpful colleague! From travelling tips to msdb troubleshooting to interpreting emails from procurement colleagues...You'll be a great addition to MND Finance! All the best :)</t>
+  </si>
+  <si>
+    <t>Chee Seng</t>
+  </si>
+  <si>
+    <t>Hey Victor,
+Thanks for all your contributions to MSO over the past 2 years and here's wishing you all the best in your next post at MND Finance! I am sure you will do very well there as someone who is always looking out for the best value for money deals. I will always remember your presentation on the best credit cards out there and how to optimise our expenses using them. Have fun there and keep in touch!
+Cheers, 
+Chee Seng</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Best wishes Victor! See you around in MND, when we eventually get to return to office!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi Victor, sad to see you leave MSO, especially after working closely together on MSDB the past 5 months, but I know you're off to do great things in Finance! I really appreciate your patience and warmth in guiding me through all the gory MSDB details and duties with me, especially in this difficult time of communicating via screens. I also appreciate all the non-work conversations we had, about learning and development, finance, and ~~dash-boarding~~. Hope you still manage to find some time to play with Tableau/QlikSense/PowerBI once in a while. I know you will be off to greener pastures indeed - might be intense, but seeing how you handled all the finance and budgets of MSDB, I know you'll settle in just fine. Wishing you all the best in your future endeavours and hope we can still keep in touch! </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,6 +311,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="33">
@@ -604,9 +663,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -963,21 +1028,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="45.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -991,23 +1057,23 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" cm="1">
-        <f t="array" aca="1" ref="C2:C12" ca="1">_xlfn.RANDARRAY(11,1,103.657437,103.960436,FALSE)</f>
-        <v>103.75389070759336</v>
+        <f t="array" aca="1" ref="C2:C18" ca="1">_xlfn.RANDARRAY(17,1,103.657437,103.960436,FALSE)</f>
+        <v>103.9322667159568</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" aca="1" ref="D2:D12" ca="1">_xlfn.RANDARRAY(11,1, 1.282216, 1.444822, FALSE)</f>
-        <v>1.3782469538855926</v>
+        <f t="array" aca="1" ref="D2:D18" ca="1">_xlfn.RANDARRAY(17,1, 1.282216, 1.444822, FALSE)</f>
+        <v>1.4160692333039788</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1015,15 +1081,15 @@
       </c>
       <c r="C3">
         <f ca="1"/>
-        <v>103.88317968479053</v>
+        <v>103.72849742897822</v>
       </c>
       <c r="D3">
         <f ca="1"/>
-        <v>1.4290506542435546</v>
+        <v>1.33405314187788</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1031,15 +1097,15 @@
       </c>
       <c r="C4">
         <f ca="1"/>
-        <v>103.81383426155364</v>
+        <v>103.87692929605868</v>
       </c>
       <c r="D4">
         <f ca="1"/>
-        <v>1.3990098881477255</v>
+        <v>1.3886742707920288</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1047,15 +1113,15 @@
       </c>
       <c r="C5">
         <f ca="1"/>
-        <v>103.86787710186236</v>
+        <v>103.92734874642521</v>
       </c>
       <c r="D5">
         <f ca="1"/>
-        <v>1.3218502489903783</v>
+        <v>1.3066600513375277</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1063,15 +1129,15 @@
       </c>
       <c r="C6">
         <f ca="1"/>
-        <v>103.83778403091485</v>
+        <v>103.69518850617476</v>
       </c>
       <c r="D6">
         <f ca="1"/>
-        <v>1.398541715753074</v>
+        <v>1.2948907901840343</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1079,15 +1145,15 @@
       </c>
       <c r="C7">
         <f ca="1"/>
-        <v>103.804048126815</v>
+        <v>103.67974583656238</v>
       </c>
       <c r="D7">
         <f ca="1"/>
-        <v>1.4405259699149711</v>
+        <v>1.3298803051647734</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1095,15 +1161,15 @@
       </c>
       <c r="C8">
         <f ca="1"/>
-        <v>103.79562187158069</v>
+        <v>103.70131200368266</v>
       </c>
       <c r="D8">
         <f ca="1"/>
-        <v>1.3788438237551579</v>
+        <v>1.3686891064431521</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1111,15 +1177,15 @@
       </c>
       <c r="C9">
         <f ca="1"/>
-        <v>103.71273942118518</v>
+        <v>103.7301028663902</v>
       </c>
       <c r="D9">
         <f ca="1"/>
-        <v>1.4008951150637781</v>
+        <v>1.3386585156696142</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1127,15 +1193,15 @@
       </c>
       <c r="C10">
         <f ca="1"/>
-        <v>103.90386287064736</v>
+        <v>103.93758507119337</v>
       </c>
       <c r="D10">
         <f ca="1"/>
-        <v>1.3542028952615492</v>
+        <v>1.4182099417942817</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1143,27 +1209,123 @@
       </c>
       <c r="C11">
         <f ca="1"/>
-        <v>103.86073348304724</v>
+        <v>103.94981144642986</v>
       </c>
       <c r="D11">
         <f ca="1"/>
-        <v>1.4219712524534571</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="289" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+        <v>1.4314830464896713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="141" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <f ca="1"/>
+        <v>103.65971164680991</v>
+      </c>
+      <c r="D12">
+        <f ca="1"/>
+        <v>1.3545077809664028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="99" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12">
-        <f ca="1"/>
-        <v>103.90744144446124</v>
-      </c>
-      <c r="D12">
-        <f ca="1"/>
-        <v>1.2892197194630608</v>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <f ca="1"/>
+        <v>103.84422579641407</v>
+      </c>
+      <c r="D13">
+        <f ca="1"/>
+        <v>1.364052881442535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <f ca="1"/>
+        <v>103.79366938366343</v>
+      </c>
+      <c r="D14">
+        <f ca="1"/>
+        <v>1.3503935747646045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <f ca="1"/>
+        <v>103.79919419773734</v>
+      </c>
+      <c r="D15">
+        <f ca="1"/>
+        <v>1.402469607017693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <f ca="1"/>
+        <v>103.68269873059059</v>
+      </c>
+      <c r="D16">
+        <f ca="1"/>
+        <v>1.3042939107325753</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="155" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <f ca="1"/>
+        <v>103.92885932860493</v>
+      </c>
+      <c r="D17">
+        <f ca="1"/>
+        <v>1.4444081478022379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <f ca="1"/>
+        <v>103.88551443517069</v>
+      </c>
+      <c r="D18">
+        <f ca="1"/>
+        <v>1.3770479173859784</v>
       </c>
     </row>
   </sheetData>
